--- a/meta/telegrams/Locale.xlsx
+++ b/meta/telegrams/Locale.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EF145-7469-1243-8A5E-90A7C9E4989C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DD075C-CA5C-374A-910B-4A3E6525C777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="5080" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="6780" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="accessScope">config!$B$4:$B$6</definedName>
     <definedName name="accessScope2">config!$B$4:$B$5</definedName>
@@ -23,7 +27,10 @@
     <definedName name="adjustFiledName">config!$H$4:$H$5</definedName>
     <definedName name="createToString">config!$F$4:$F$5</definedName>
     <definedName name="isAbstract">config!$D$4:$D$5</definedName>
+    <definedName name="isData">[1]config!$F$4:$F$5</definedName>
+    <definedName name="isFinal">[1]config!$D$4:$D$5</definedName>
     <definedName name="isRequired">config!$L$4:$L$5</definedName>
+    <definedName name="others">[2]config!$N$4:$N$5</definedName>
     <definedName name="Submit有無" localSheetId="1">#REF!</definedName>
     <definedName name="Submit有無">#REF!</definedName>
     <definedName name="toString">config!$F$4:$F$5</definedName>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>クラス名</t>
   </si>
@@ -381,10 +388,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>"JST"</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>"JPY"</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -408,8 +411,54 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Nullable</t>
+    <t>総称型</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソウショウガタ </t>
+    </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>※ クラスのGenericを定義するために使用します。</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">テイギスル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dataクラス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/* kotlin 独自 */</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>抽象クラス</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウショウクラス </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイナル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コンストラクタ引数</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒキスウ </t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"Asia/Tokyo"</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -518,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1080,19 +1129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1108,8 +1144,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -1122,7 +1169,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -1134,27 +1181,64 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1164,14 +1248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1282,6 +1368,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,17 +1378,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,6 +1400,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1338,35 +1436,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1451,6 +1540,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="valueObject"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>○</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>○</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5"/>
+          <cell r="F5"/>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="valueObject"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="N5" t="str">
+            <v>○</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,17 +1916,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="34" customWidth="1"/>
     <col min="8" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
@@ -1823,7 +1961,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="102"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="96"/>
       <c r="I5" s="96"/>
       <c r="J5" s="96"/>
@@ -1837,13 +1975,13 @@
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="41"/>
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
       <c r="J6" s="96"/>
@@ -1857,13 +1995,13 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="103"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="41"/>
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
       <c r="J7" s="96"/>
@@ -1877,13 +2015,13 @@
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="103"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
       <c r="J8" s="96"/>
@@ -1893,19 +2031,17 @@
       <c r="N8" s="96"/>
       <c r="O8" s="96"/>
     </row>
-    <row r="9" spans="1:15" s="32" customFormat="1">
-      <c r="A9" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="77" t="s">
-        <v>63</v>
-      </c>
+    <row r="9" spans="1:15" s="34" customFormat="1">
+      <c r="A9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="95" t="s">
-        <v>64</v>
+      <c r="E9" s="40"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="97"/>
       <c r="I9" s="97"/>
@@ -1916,15 +2052,20 @@
       <c r="N9" s="97"/>
       <c r="O9" s="97"/>
     </row>
-    <row r="10" spans="1:15" s="32" customFormat="1">
-      <c r="A10" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="77"/>
+    <row r="10" spans="1:15" s="34" customFormat="1">
+      <c r="A10" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="77" t="s">
+        <v>62</v>
+      </c>
       <c r="D10" s="78"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="104"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="97"/>
       <c r="I10" s="97"/>
       <c r="J10" s="97"/>
@@ -1934,37 +2075,36 @@
       <c r="N10" s="97"/>
       <c r="O10" s="97"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="39"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
+    <row r="11" spans="1:15" s="34" customFormat="1">
+      <c r="A11" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="8"/>
       <c r="H12" s="96"/>
       <c r="I12" s="96"/>
       <c r="J12" s="96"/>
@@ -1974,742 +2114,773 @@
       <c r="N12" s="96"/>
       <c r="O12" s="96"/>
     </row>
-    <row r="13" spans="1:15" s="32" customFormat="1">
-      <c r="A13" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="8"/>
       <c r="G13"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-    </row>
-    <row r="14" spans="1:15" s="32" customFormat="1">
-      <c r="A14" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56" t="s">
-        <v>44</v>
-      </c>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+    </row>
+    <row r="14" spans="1:15" s="34" customFormat="1">
+      <c r="A14" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-    </row>
-    <row r="15" spans="1:15" s="32" customFormat="1">
-      <c r="A15" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56" t="s">
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" s="34" customFormat="1">
+      <c r="A15" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-    </row>
-    <row r="16" spans="1:15" s="32" customFormat="1">
-      <c r="A16" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" s="34" customFormat="1">
+      <c r="A16" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" s="34" customFormat="1">
+      <c r="A17" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="96"/>
-    </row>
-    <row r="18" spans="1:17" s="32" customFormat="1">
-      <c r="A18" s="29" t="s">
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" s="34" customFormat="1">
+      <c r="A18" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:15" s="34" customFormat="1">
+      <c r="A19" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:15" s="34" customFormat="1">
+      <c r="A20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:15" s="34" customFormat="1">
+      <c r="A21" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" s="82"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" s="34" customFormat="1">
+      <c r="A23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-    </row>
-    <row r="19" spans="1:17" s="32" customFormat="1">
-      <c r="A19" s="33" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" s="34" customFormat="1">
+      <c r="A24" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-    </row>
-    <row r="20" spans="1:17" s="32" customFormat="1">
-      <c r="A20" s="57" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" s="34" customFormat="1">
+      <c r="A25" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-    </row>
-    <row r="21" spans="1:17" s="32" customFormat="1">
-      <c r="A21" s="57" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:15" s="34" customFormat="1">
+      <c r="A26" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-    </row>
-    <row r="22" spans="1:17" s="32" customFormat="1">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-    </row>
-    <row r="23" spans="1:17" s="32" customFormat="1">
-      <c r="A23" s="29" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="82"/>
+    </row>
+    <row r="27" spans="1:15" s="34" customFormat="1">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="83"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:15" s="34" customFormat="1">
+      <c r="A28" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-    </row>
-    <row r="24" spans="1:17" s="32" customFormat="1">
-      <c r="A24" s="61" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="1:15" s="34" customFormat="1">
+      <c r="A29" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B29" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-    </row>
-    <row r="25" spans="1:17" s="32" customFormat="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-    </row>
-    <row r="26" spans="1:17" s="32" customFormat="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-    </row>
-    <row r="27" spans="1:17" s="32" customFormat="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-    </row>
-    <row r="28" spans="1:17" s="32" customFormat="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="99"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="1:15" s="34" customFormat="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:15" s="34" customFormat="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:15" s="34" customFormat="1">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="95"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:17" s="34" customFormat="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="83"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A35" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B35" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C35" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D35" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E35" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F35" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="85" t="s">
+      <c r="G35" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="85" t="s">
+      <c r="I35" s="92"/>
+      <c r="J35" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="40" t="s">
+      <c r="K35" s="92"/>
+      <c r="L35" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="81" t="s">
+      <c r="M35" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="81"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="41" t="s">
+      <c r="N35" s="87"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I36" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J36" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L36" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="16">
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="18">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="73" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="105" t="s">
+      <c r="F37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="18" t="s">
+      <c r="G37" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="16">
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="18">
         <v>2</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B38" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="73" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="18">
+        <v>3</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="92"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="16">
-        <v>3</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18" t="s">
+      <c r="G39" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="12"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="14"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="12"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="73"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="12"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="14"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="73"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="12"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="73"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="12"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="73"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="12"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="14"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="73"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="12"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="12"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="G35:G36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H52:L52 F62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H57:L57 F67 G62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{FD49C23E-2533-034F-9A9C-F0BB905E9A5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{FD49C23E-2533-034F-9A9C-F0BB905E9A5A}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{BF42F312-DBF5-0241-AF19-CCDC94177527}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{BF42F312-DBF5-0241-AF19-CCDC94177527}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{BCC646AA-BFB1-2944-8D26-F9FAAA4A8250}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{BCC646AA-BFB1-2944-8D26-F9FAAA4A8250}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E46" xr:uid="{5896ACEF-5A80-5444-A73C-A29B5D5191CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:E51" xr:uid="{5896ACEF-5A80-5444-A73C-A29B5D5191CA}">
       <formula1>isRequired</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{D9C2C14E-2710-6D43-8C9F-65EE8CD224D5}">
+      <formula1>accessScope2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{6AFD518C-F3EC-0B46-B1B1-F008325426EB}">
+      <formula1>isAbstract</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{A8E60F85-5076-5A40-9B06-8D07613253AB}">
+      <formula1>isFinal</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{4428E186-0F15-BD49-988E-06A511E59935}">
+      <formula1>isData</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G51" xr:uid="{CC46885E-7C39-E640-AA0E-C2EFB8A6AA9A}">
+      <formula1>others</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555562" footer="0.11805555555555557"/>
@@ -2733,85 +2904,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="256" width="8.83203125" style="47" customWidth="1"/>
-    <col min="257" max="16384" width="10.83203125" style="47"/>
+    <col min="1" max="3" width="8.83203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="8.83203125" style="49" customWidth="1"/>
+    <col min="257" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="53"/>
+      <c r="B6" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
